--- a/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
+++ b/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjuli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF44F87-1918-4573-8B08-0E953AE9ADA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2456F-480C-4F73-AA92-6893ED509509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="1236" windowWidth="19632" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ING SISTEMAS 2023 2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>INGENIERÍA DE SISTEMAS 2023 2</t>
   </si>
@@ -213,18 +213,6 @@
   </si>
   <si>
     <t>CARLOS ESTUPIÑAN CONTRERAS, JEFE DE DESARROLLO DE SOFTWARE, TEL 3168780394, CARLOS_ESTUPINAN@EFICACIA.COM.CO</t>
-  </si>
-  <si>
-    <t>NO APROBADO</t>
-  </si>
-  <si>
-    <t>DATO A AGO14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTE APROBAC PROG ACAD </t>
-  </si>
-  <si>
-    <t>UBICACIÓN COMO PRACTICANTE</t>
   </si>
 </sst>
 </file>
@@ -234,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,14 +295,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -328,12 +308,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -351,8 +325,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,18 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -512,19 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -555,71 +512,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,10 +525,10 @@
     <xf numFmtId="164" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,10 +537,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,25 +577,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,75 +589,46 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1189,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1204,7 +1058,7 @@
     <col min="2" max="3" width="15.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" style="42" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="32" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="12" customWidth="1"/>
     <col min="9" max="10" width="15.109375" style="12" customWidth="1"/>
     <col min="11" max="11" width="35.6640625" style="12" customWidth="1"/>
@@ -1229,36 +1083,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="11"/>
     </row>
@@ -1268,31 +1122,31 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
       <c r="K2" s="13"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="17"/>
     </row>
@@ -1383,25 +1237,25 @@
       </c>
     </row>
     <row r="4" spans="1:30" s="18" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="31" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="19">
@@ -1471,13 +1325,13 @@
       <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="30" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="3">
@@ -1544,94 +1398,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>0</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
+    <row r="6" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="33"/>
     </row>
-    <row r="7" spans="1:30" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <v>7</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
-        <v>1</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:30" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
-        <v>13</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A3:AB5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AB8">
       <sortCondition ref="F3:F5"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="8">
+  <mergeCells count="3">
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="R2:AB2"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:E3">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">

--- a/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
+++ b/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\roles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Dropbox\My PC (DESKTOP-23VV5U8)\Documents\GitHub\roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2456F-480C-4F73-AA92-6893ED509509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D634649B-1F3C-418D-81A1-69348C84CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1236" windowWidth="19632" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ING SISTEMAS 2023 2" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ING SISTEMAS 2023 2'!$A$3:$AB$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>INGENIERÍA DE SISTEMAS 2023 2</t>
   </si>
@@ -213,6 +200,15 @@
   </si>
   <si>
     <t>CARLOS ESTUPIÑAN CONTRERAS, JEFE DE DESARROLLO DE SOFTWARE, TEL 3168780394, CARLOS_ESTUPINAN@EFICACIA.COM.CO</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>MARTINEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>smartinezs2@correo.usbcali.edu.co; samymartsa123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -638,16 +634,6 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
@@ -686,6 +672,16 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -747,7 +743,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1049,40 +1045,40 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="12" customWidth="1"/>
-    <col min="9" max="10" width="15.109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="12" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="12" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="12" customWidth="1"/>
     <col min="15" max="15" width="16" style="12" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="12" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="12" customWidth="1"/>
     <col min="20" max="20" width="27" style="12" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" style="12" customWidth="1"/>
-    <col min="22" max="23" width="19.109375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="12" customWidth="1"/>
+    <col min="22" max="23" width="19.140625" style="12" customWidth="1"/>
     <col min="24" max="24" width="18" style="12" customWidth="1"/>
-    <col min="25" max="25" width="17.88671875" style="12" customWidth="1"/>
-    <col min="26" max="26" width="18.109375" style="12" customWidth="1"/>
-    <col min="27" max="27" width="25.44140625" style="12" customWidth="1"/>
-    <col min="28" max="29" width="18.33203125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="18.109375" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="12"/>
+    <col min="25" max="25" width="17.85546875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="12" customWidth="1"/>
+    <col min="27" max="27" width="25.42578125" style="12" customWidth="1"/>
+    <col min="28" max="29" width="18.28515625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1112,7 @@
       <c r="AC1" s="10"/>
       <c r="AD1" s="11"/>
     </row>
-    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1150,7 +1146,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="18" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -1312,7 +1308,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:30" s="18" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>16</v>
       </c>
@@ -1398,8 +1394,93 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30000062842</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1007401695</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3108437301</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="7">
+        <v>45078</v>
+      </c>
+      <c r="X6" s="7">
+        <v>45257</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="33"/>
     </row>
   </sheetData>
@@ -1429,29 +1510,29 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I3 J2">
+    <cfRule type="duplicateValues" dxfId="5" priority="78"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="5" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="75" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="76" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="SI">
+  <conditionalFormatting sqref="Q4:Q6">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",Q4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",Q4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AD2 AA3:AB3">
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3 J2">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{9502BFFB-4F65-4797-963B-D8455A2BED8B}"/>

--- a/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
+++ b/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Dropbox\My PC (DESKTOP-23VV5U8)\Documents\GitHub\roles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Escritorio\roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D634649B-1F3C-418D-81A1-69348C84CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5C3D9-B17D-4E32-9C13-50E56E6415AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ING SISTEMAS 2023 2" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1045,10 +1045,10 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="12" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" style="12" customWidth="1"/>

--- a/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
+++ b/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Escritorio\roles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5C3D9-B17D-4E32-9C13-50E56E6415AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47601F1-8E48-4651-9F17-58401FDB1FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19632" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ING SISTEMAS 2023 2" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>SERVICIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Aplaza 2024 1 </t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t xml:space="preserve">BACHILLERATO TÉCNICO/BACHILLER TÉCNICO INDUSTRIAL MODALIDAD ELECTRICIDAD </t>
   </si>
   <si>
-    <t>APLAZA 2024 1</t>
-  </si>
-  <si>
     <t>JUL6 ESTUDIANTE INF TELEFÓNICAMENTE Q APLAZA 2024 1</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>smartinezs2@correo.usbcali.edu.co; samymartsa123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplaza 2024 2 </t>
+  </si>
+  <si>
+    <t>APLAZA 2024 2</t>
   </si>
 </sst>
 </file>
@@ -1045,40 +1045,40 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="12" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="12" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="35.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="12" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="12" customWidth="1"/>
+    <col min="9" max="10" width="15.109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="12" customWidth="1"/>
     <col min="15" max="15" width="16" style="12" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" style="12" customWidth="1"/>
     <col min="20" max="20" width="27" style="12" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="12" customWidth="1"/>
-    <col min="22" max="23" width="19.140625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="12" customWidth="1"/>
+    <col min="22" max="23" width="19.109375" style="12" customWidth="1"/>
     <col min="24" max="24" width="18" style="12" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" style="12" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" style="12" customWidth="1"/>
-    <col min="27" max="27" width="25.42578125" style="12" customWidth="1"/>
-    <col min="28" max="29" width="18.28515625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="12"/>
+    <col min="25" max="25" width="17.88671875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="18.109375" style="12" customWidth="1"/>
+    <col min="27" max="27" width="25.44140625" style="12" customWidth="1"/>
+    <col min="28" max="29" width="18.33203125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="18.109375" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="AC1" s="10"/>
       <c r="AD1" s="11"/>
     </row>
-    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1146,7 +1146,7 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1232,12 +1232,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="18" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>31</v>
@@ -1246,16 +1246,16 @@
         <v>35</v>
       </c>
       <c r="E4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="G4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>43</v>
-      </c>
       <c r="H4" s="19">
-        <v>30000069778</v>
+        <v>30000069779</v>
       </c>
       <c r="I4" s="19">
         <v>1006103463</v>
@@ -1264,10 +1264,10 @@
         <v>3114275574</v>
       </c>
       <c r="K4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>32</v>
@@ -1276,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>36</v>
@@ -1285,30 +1285,30 @@
         <v>31</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4" s="19" t="s">
         <v>34</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:30" s="18" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="18" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>16</v>
       </c>
@@ -1325,10 +1325,10 @@
         <v>31</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3">
         <v>30000064401</v>
@@ -1340,10 +1340,10 @@
         <v>3163184131</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>32</v>
@@ -1361,16 +1361,16 @@
         <v>31</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>37</v>
@@ -1382,10 +1382,10 @@
         <v>45257</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>38</v>
@@ -1394,7 +1394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>16</v>
       </c>
@@ -1411,10 +1411,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="3">
         <v>30000062842</v>
@@ -1426,10 +1426,10 @@
         <v>3108437301</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>32</v>
@@ -1447,16 +1447,16 @@
         <v>31</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>37</v>
@@ -1468,10 +1468,10 @@
         <v>45257</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>38</v>
@@ -1480,8 +1480,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="33"/>
+      <c r="U7" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AB5" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
+++ b/ASPIRANTES A PRACTICA ING SIST 2023-2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Escritorio\roles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Dropbox\My PC (DESKTOP-23VV5U8)\Documents\GitHub\roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5C3D9-B17D-4E32-9C13-50E56E6415AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F943135-D5EA-4DF2-B657-7F2870B6EBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ING SISTEMAS 2023 2" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1045,10 +1045,10 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="12" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" style="12" customWidth="1"/>
@@ -1312,8 +1312,8 @@
       <c r="A5" s="9">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
+      <c r="B5" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>31</v>
